--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H2">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N2">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O2">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P2">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q2">
-        <v>37.55957544671688</v>
+        <v>57.37210612809954</v>
       </c>
       <c r="R2">
-        <v>338.036179020452</v>
+        <v>516.3489551528959</v>
       </c>
       <c r="S2">
-        <v>0.0160528143618516</v>
+        <v>0.01809680708919568</v>
       </c>
       <c r="T2">
-        <v>0.0160528143618516</v>
+        <v>0.01809680708919568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H3">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I3">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J3">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.63458</v>
       </c>
       <c r="O3">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P3">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q3">
-        <v>26.80461584055333</v>
+        <v>31.92050036394666</v>
       </c>
       <c r="R3">
-        <v>241.24154256498</v>
+        <v>287.28450327552</v>
       </c>
       <c r="S3">
-        <v>0.01145618705780024</v>
+        <v>0.01006864095222781</v>
       </c>
       <c r="T3">
-        <v>0.01145618705780023</v>
+        <v>0.01006864095222781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H4">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I4">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J4">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N4">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O4">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P4">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q4">
-        <v>158.8341372323</v>
+        <v>307.1176177270329</v>
       </c>
       <c r="R4">
-        <v>1429.5072350907</v>
+        <v>2764.058559543296</v>
       </c>
       <c r="S4">
-        <v>0.0678850836035701</v>
+        <v>0.09687370146896787</v>
       </c>
       <c r="T4">
-        <v>0.06788508360357007</v>
+        <v>0.09687370146896787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H5">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I5">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J5">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N5">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O5">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P5">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q5">
-        <v>5.044071201841112</v>
+        <v>7.296757991139555</v>
       </c>
       <c r="R5">
-        <v>45.39664081657</v>
+        <v>65.670821920256</v>
       </c>
       <c r="S5">
-        <v>0.002155816131254882</v>
+        <v>0.002301606663129375</v>
       </c>
       <c r="T5">
-        <v>0.002155816131254882</v>
+        <v>0.002301606663129375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H6">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I6">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J6">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N6">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O6">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P6">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q6">
-        <v>240.0164998581372</v>
+        <v>254.1486456350151</v>
       </c>
       <c r="R6">
-        <v>2160.148498723235</v>
+        <v>2287.337810715136</v>
       </c>
       <c r="S6">
-        <v>0.1025821051004677</v>
+        <v>0.08016576908939028</v>
       </c>
       <c r="T6">
-        <v>0.1025821051004677</v>
+        <v>0.08016576908939028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H7">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I7">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J7">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N7">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O7">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P7">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q7">
-        <v>37.21396876742355</v>
+        <v>47.7337994646221</v>
       </c>
       <c r="R7">
-        <v>334.925718906812</v>
+        <v>429.604195181599</v>
       </c>
       <c r="S7">
-        <v>0.01590510343064626</v>
+        <v>0.01505660884432016</v>
       </c>
       <c r="T7">
-        <v>0.01590510343064626</v>
+        <v>0.01505660884432016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H8">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I8">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J8">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.63458</v>
       </c>
       <c r="O8">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P8">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q8">
         <v>26.55797156515333</v>
@@ -948,10 +948,10 @@
         <v>239.02174408638</v>
       </c>
       <c r="S8">
-        <v>0.01135077226758179</v>
+        <v>0.008377145629303126</v>
       </c>
       <c r="T8">
-        <v>0.01135077226758179</v>
+        <v>0.008377145629303124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H9">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I9">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J9">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N9">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O9">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P9">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q9">
-        <v>157.3726154213</v>
+        <v>255.5229669258138</v>
       </c>
       <c r="R9">
-        <v>1416.3535387917</v>
+        <v>2299.706702332324</v>
       </c>
       <c r="S9">
-        <v>0.06726043494770166</v>
+        <v>0.08059926942529617</v>
       </c>
       <c r="T9">
-        <v>0.06726043494770165</v>
+        <v>0.08059926942529616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H10">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I10">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J10">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N10">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O10">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P10">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q10">
-        <v>4.997657879074445</v>
+        <v>6.070928996632111</v>
       </c>
       <c r="R10">
-        <v>44.97892091167</v>
+        <v>54.63836096968901</v>
       </c>
       <c r="S10">
-        <v>0.00213597926021924</v>
+        <v>0.00191494505463948</v>
       </c>
       <c r="T10">
-        <v>0.002135979260219239</v>
+        <v>0.00191494505463948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H11">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I11">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J11">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N11">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O11">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P11">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q11">
-        <v>237.8079736832539</v>
+        <v>211.4525908785732</v>
       </c>
       <c r="R11">
-        <v>2140.271763149285</v>
+        <v>1903.073317907159</v>
       </c>
       <c r="S11">
-        <v>0.1016381897266375</v>
+        <v>0.06669820935449272</v>
       </c>
       <c r="T11">
-        <v>0.1016381897266375</v>
+        <v>0.06669820935449271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.780877333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H12">
-        <v>8.342632</v>
+        <v>12.70586</v>
       </c>
       <c r="I12">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J12">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N12">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O12">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P12">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q12">
-        <v>41.08977258210489</v>
+        <v>80.27027148941553</v>
       </c>
       <c r="R12">
-        <v>369.807953238944</v>
+        <v>722.43244340474</v>
       </c>
       <c r="S12">
-        <v>0.01756160668980315</v>
+        <v>0.02531954491783681</v>
       </c>
       <c r="T12">
-        <v>0.01756160668980315</v>
+        <v>0.02531954491783681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.780877333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H13">
-        <v>8.342632</v>
+        <v>12.70586</v>
       </c>
       <c r="I13">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J13">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.63458</v>
       </c>
       <c r="O13">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P13">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q13">
-        <v>29.32396215717333</v>
+        <v>44.66050495986666</v>
       </c>
       <c r="R13">
-        <v>263.91565941456</v>
+        <v>401.9445446388</v>
       </c>
       <c r="S13">
-        <v>0.01253294573392767</v>
+        <v>0.01408720364841077</v>
       </c>
       <c r="T13">
-        <v>0.01253294573392767</v>
+        <v>0.01408720364841077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.780877333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H14">
-        <v>8.342632</v>
+        <v>12.70586</v>
       </c>
       <c r="I14">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J14">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N14">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O14">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P14">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q14">
-        <v>173.7628420856</v>
+        <v>429.6933861742489</v>
       </c>
       <c r="R14">
-        <v>1563.8655787704</v>
+        <v>3867.24047556824</v>
       </c>
       <c r="S14">
-        <v>0.07426555315953909</v>
+        <v>0.1355376129950039</v>
       </c>
       <c r="T14">
-        <v>0.07426555315953907</v>
+        <v>0.1355376129950038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.780877333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H15">
-        <v>8.342632</v>
+        <v>12.70586</v>
       </c>
       <c r="I15">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J15">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N15">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O15">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P15">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q15">
-        <v>5.518159779671111</v>
+        <v>10.20901592201555</v>
       </c>
       <c r="R15">
-        <v>49.66343801704001</v>
+        <v>91.88114329814</v>
       </c>
       <c r="S15">
-        <v>0.002358439718994197</v>
+        <v>0.003220216306836191</v>
       </c>
       <c r="T15">
-        <v>0.002358439718994196</v>
+        <v>0.00322021630683619</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.780877333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H16">
-        <v>8.342632</v>
+        <v>12.70586</v>
       </c>
       <c r="I16">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J16">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N16">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O16">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P16">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q16">
-        <v>262.5754758361022</v>
+        <v>355.583613023371</v>
       </c>
       <c r="R16">
-        <v>2363.17928252492</v>
+        <v>3200.25251721034</v>
       </c>
       <c r="S16">
-        <v>0.1122237224313526</v>
+        <v>0.1121612658701312</v>
       </c>
       <c r="T16">
-        <v>0.1122237224313525</v>
+        <v>0.1121612658701312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.237736333333333</v>
+        <v>1.937427333333333</v>
       </c>
       <c r="H17">
-        <v>3.713209</v>
+        <v>5.812282</v>
       </c>
       <c r="I17">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="J17">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N17">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O17">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P17">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q17">
-        <v>18.28858247131422</v>
+        <v>36.71954941365977</v>
       </c>
       <c r="R17">
-        <v>164.597242241828</v>
+        <v>330.475944722938</v>
       </c>
       <c r="S17">
-        <v>0.007816467994157873</v>
+        <v>0.01158239860773961</v>
       </c>
       <c r="T17">
-        <v>0.007816467994157871</v>
+        <v>0.01158239860773961</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.237736333333333</v>
+        <v>1.937427333333333</v>
       </c>
       <c r="H18">
-        <v>3.713209</v>
+        <v>5.812282</v>
       </c>
       <c r="I18">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="J18">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.63458</v>
       </c>
       <c r="O18">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P18">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q18">
-        <v>13.05175635191333</v>
+        <v>20.42989999017333</v>
       </c>
       <c r="R18">
-        <v>117.46580716722</v>
+        <v>183.86909991156</v>
       </c>
       <c r="S18">
-        <v>0.005578269171615366</v>
+        <v>0.006444176167216722</v>
       </c>
       <c r="T18">
-        <v>0.005578269171615365</v>
+        <v>0.006444176167216721</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.237736333333333</v>
+        <v>1.937427333333333</v>
       </c>
       <c r="H19">
-        <v>3.713209</v>
+        <v>5.812282</v>
       </c>
       <c r="I19">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="J19">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N19">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O19">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P19">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q19">
-        <v>77.33983101470001</v>
+        <v>196.5627776458764</v>
       </c>
       <c r="R19">
-        <v>696.0584791323</v>
+        <v>1769.064998812888</v>
       </c>
       <c r="S19">
-        <v>0.03305473864626643</v>
+        <v>0.0620015353808264</v>
       </c>
       <c r="T19">
-        <v>0.03305473864626642</v>
+        <v>0.06200153538082639</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.237736333333333</v>
+        <v>1.937427333333333</v>
       </c>
       <c r="H20">
-        <v>3.713209</v>
+        <v>5.812282</v>
       </c>
       <c r="I20">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="J20">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N20">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O20">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P20">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q20">
-        <v>2.456069086747778</v>
+        <v>4.670103360279778</v>
       </c>
       <c r="R20">
-        <v>22.10462178073</v>
+        <v>42.030930242518</v>
       </c>
       <c r="S20">
-        <v>0.00104971423772818</v>
+        <v>0.001473084488285757</v>
       </c>
       <c r="T20">
-        <v>0.00104971423772818</v>
+        <v>0.001473084488285757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.237736333333333</v>
+        <v>1.937427333333333</v>
       </c>
       <c r="H21">
-        <v>3.713209</v>
+        <v>5.812282</v>
       </c>
       <c r="I21">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="J21">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N21">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O21">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P21">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q21">
-        <v>116.8693069589906</v>
+        <v>162.6613415755175</v>
       </c>
       <c r="R21">
-        <v>1051.823762630915</v>
+        <v>1463.952074179658</v>
       </c>
       <c r="S21">
-        <v>0.04994948070891779</v>
+        <v>0.05130805051481582</v>
       </c>
       <c r="T21">
-        <v>0.04994948070891778</v>
+        <v>0.05130805051481582</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.622274</v>
+        <v>2.869646666666667</v>
       </c>
       <c r="H22">
-        <v>10.866822</v>
+        <v>8.60894</v>
       </c>
       <c r="I22">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="J22">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N22">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O22">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P22">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q22">
-        <v>53.52210725226932</v>
+        <v>54.38765664316222</v>
       </c>
       <c r="R22">
-        <v>481.698965270424</v>
+        <v>489.48890978846</v>
       </c>
       <c r="S22">
-        <v>0.02287513747844806</v>
+        <v>0.01715542615965878</v>
       </c>
       <c r="T22">
-        <v>0.02287513747844805</v>
+        <v>0.01715542615965878</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.622274</v>
+        <v>2.869646666666667</v>
       </c>
       <c r="H23">
-        <v>10.866822</v>
+        <v>8.60894</v>
       </c>
       <c r="I23">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="J23">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>31.63458</v>
       </c>
       <c r="O23">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P23">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q23">
-        <v>38.19637221164</v>
+        <v>30.26002234946667</v>
       </c>
       <c r="R23">
-        <v>343.76734990476</v>
+        <v>272.3402011452</v>
       </c>
       <c r="S23">
-        <v>0.01632497878682068</v>
+        <v>0.009544878581768525</v>
       </c>
       <c r="T23">
-        <v>0.01632497878682067</v>
+        <v>0.009544878581768525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.622274</v>
+        <v>2.869646666666667</v>
       </c>
       <c r="H24">
-        <v>10.866822</v>
+        <v>8.60894</v>
       </c>
       <c r="I24">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="J24">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N24">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O24">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P24">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q24">
-        <v>226.3374286626</v>
+        <v>291.1416133949955</v>
       </c>
       <c r="R24">
-        <v>2037.0368579634</v>
+        <v>2620.27452055496</v>
       </c>
       <c r="S24">
-        <v>0.09673572403963746</v>
+        <v>0.09183441168226381</v>
       </c>
       <c r="T24">
-        <v>0.09673572403963744</v>
+        <v>0.09183441168226381</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.622274</v>
+        <v>2.869646666666667</v>
       </c>
       <c r="H25">
-        <v>10.866822</v>
+        <v>8.60894</v>
       </c>
       <c r="I25">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="J25">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N25">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O25">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P25">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q25">
-        <v>7.187762817926666</v>
+        <v>6.917186678562222</v>
       </c>
       <c r="R25">
-        <v>64.68986536134</v>
+        <v>62.25468010706001</v>
       </c>
       <c r="S25">
-        <v>0.00307202147044721</v>
+        <v>0.002181878989110092</v>
       </c>
       <c r="T25">
-        <v>0.003072021470447209</v>
+        <v>0.002181878989110092</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.622274</v>
+        <v>2.869646666666667</v>
       </c>
       <c r="H26">
-        <v>10.866822</v>
+        <v>8.60894</v>
       </c>
       <c r="I26">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="J26">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N26">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O26">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P26">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q26">
-        <v>342.0216734330633</v>
+        <v>240.9280433989844</v>
       </c>
       <c r="R26">
-        <v>3078.19506089757</v>
+        <v>2168.35239059086</v>
       </c>
       <c r="S26">
-        <v>0.1461787138446135</v>
+        <v>0.075995612119133</v>
       </c>
       <c r="T26">
-        <v>0.1461787138446134</v>
+        <v>0.075995612119133</v>
       </c>
     </row>
   </sheetData>
